--- a/medicine/Mort/Décès_en_1500/Décès_en_1500.xlsx
+++ b/medicine/Mort/Décès_en_1500/Décès_en_1500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1500</t>
+          <t>Décès_en_1500</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -494,13 +506,13 @@
 1503
 1504
 Cette page dresse une liste de personnalités mortes au cours de l'année 1500, présentée dans l'ordre chronologique :
-17 février : Guillaume III de Hesse, landgrave de Haute-Hesse[1].
+17 février : Guillaume III de Hesse, landgrave de Haute-Hesse.
 11 avril : Michel Marulle.
 12 avril : Léonard de Goritz, dernier comte de Goritz et stathouder de Lienz.
 29 mai: Bartolomeu Dias, navigateur portugais, premier à contourner le Cap de Bonne-Espérance (anciennement Cap des Tempêtes).
 18 août : Alphonse d'Aragon, second mari de Lucrèce Borgia, assassiné.
 15 octobre: John Morton, archevêque de Cantorbéry.
-Après le 27 octobre : Jean de Foix, né vers 1446, vicomte de Narbonne[2].</t>
+Après le 27 octobre : Jean de Foix, né vers 1446, vicomte de Narbonne.</t>
         </is>
       </c>
     </row>
